--- a/reports/resnet18_23_no_MMTM/prediction/6/prediction_train_6.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/6/prediction_train_6.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
